--- a/Popups/smy_survey_update_2025.xlsx
+++ b/Popups/smy_survey_update_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galisraeli\Documents\GitHub\Deshe\Popups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F06EBFEA-9E81-4EBC-A695-191DC4288149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A70D2CB-3488-43B7-B591-02C958217C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4847" uniqueCount="2477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4849" uniqueCount="2479">
   <si>
     <t>type</t>
   </si>
@@ -7711,6 +7711,12 @@
   <si>
     <t>עומד נטוע/חורש</t>
   </si>
+  <si>
+    <t>not(${StandDensity} = 'אין עצים' and (${TmiraLayerCover} != 'אין' or ${HighLayerCover} != 'אין' or ${MidLayerCover} != 'אין'))</t>
+  </si>
+  <si>
+    <t>לא ניתן לבחור "אין עצים" כאשר הוזן כיסוי באחת מקבוצות הגובה</t>
+  </si>
 </sst>
 </file>
 
@@ -7719,7 +7725,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-C09]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -7938,6 +7944,10 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -8087,7 +8097,7 @@
     <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8425,6 +8435,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -14987,7 +15000,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -15029,7 +15042,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -15051,9 +15064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M131" sqref="M131"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="16.5" customHeight="1"/>
@@ -17128,6 +17141,12 @@
       </c>
       <c r="D130" s="1" t="s">
         <v>1999</v>
+      </c>
+      <c r="E130" s="126" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F130" t="s">
+        <v>2478</v>
       </c>
       <c r="G130" t="s">
         <v>31</v>
@@ -18342,9 +18361,9 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Relevant" prompt="This gives you the ability to skip questions or make additional questions appear based on the response to a previous question. A question is made relevant by meeting the conditions in the relevant field (e.g., ${name} = 'value')." sqref="L1:L16 L19:L22 L132 L114:L115 L117:L130 L105:L112 L98:L102 L134:L143 L145:L158 L24:L87 L89:L96 L160:L1048576" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="media::audio" prompt="Copy your audio file to the 'media' subfolder for your project and enter the name of your audio file here (e.g., audio.mp3)." sqref="R1:R16 R19:R22 R132 R114:R115 R117:R130 R105:R112 R160:R288 R134:R158 R98:R102 R24:R96" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Constraint" prompt="Limit the range of numbers that can be entered (e.g., .&gt;0 and .&lt;100). Can be used with all question types." sqref="E1:E16 E19:E22 E132 E114:E115 E117:E130 E105:E112 E160:E288 E134:E158 E73:E76 E24:E71 E78:E96 E98:E102" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Constraint" prompt="Limit the range of numbers that can be entered (e.g., .&gt;0 and .&lt;100). Can be used with all question types." sqref="E1:E16 E19:E22 E132 E114:E115 E98:E102 E105:E112 E160:E288 E134:E158 E73:E76 E24:E71 E78:E96 E117:E129" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="C19:C22 C1:C16 C129:C130 C105:C112 C134:C158 C160:C173 C175:C1048576 C24:C73 C75:C96 C98:C102" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Constraint Message" prompt="When the constraint conditions are not met, this message will appear to prompt a valid answer (e.g., Please enter a value from 0-100)." sqref="F1:F16 F19:F22 F132 F114:F115 F117:F130 F105:F112 F160:F1048576 F134:F158 F73:F76 F24:F71 F78:F96 F98:F102" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Constraint Message" prompt="When the constraint conditions are not met, this message will appear to prompt a valid answer (e.g., Please enter a value from 0-100)." sqref="F1:F16 F19:F22 F132 F114:F115 F98:F102 F105:F112 F160:F1048576 F134:F158 F73:F76 F24:F71 F78:F96 F117:F129" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default" prompt="Set the default value for this field. This will pre-populate the survey with the default value. This can either be used to save time by supplying a commonly used answer or by showing what type of answer choice is expected." sqref="J117 J164:J1048576 J19:J22 J1:J16 J129:J130 J105:J112 J134:J158 M7 J160:J162 J98:J102 J24:J96" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="media::image" prompt="Copy your image file to the 'media' subfolder for your project and enter the name of your image file here (e.g., image.jpg)." sqref="S1:S16 S19:S22 S132 S114:S115 S117:S130 S105:S112 S160:S1048576 S134:S158 S98:S102 S24:S96" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Localization - Label" prompt="Enter translations for your survey questions here. Include any further translations by creating a new column (e.g., label::Español (es)). The list of languages will appear in a drop-down menu on the survey." sqref="P1:P16 P19:P22 P132 P114:P115 P117:P130 P105:P112 P160:P1048576 P134:P158 P98:P102 P24:P96" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>

--- a/Popups/smy_survey_update_2025.xlsx
+++ b/Popups/smy_survey_update_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galisraeli\Documents\GitHub\Deshe\Popups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A70D2CB-3488-43B7-B591-02C958217C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C37F93-2BFD-4B20-9ADE-88230733ED81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4849" uniqueCount="2479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4851" uniqueCount="2480">
   <si>
     <t>type</t>
   </si>
@@ -7712,10 +7712,13 @@
     <t>עומד נטוע/חורש</t>
   </si>
   <si>
-    <t>not(${StandDensity} = 'אין עצים' and (${TmiraLayerCover} != 'אין' or ${HighLayerCover} != 'אין' or ${MidLayerCover} != 'אין'))</t>
-  </si>
-  <si>
     <t>לא ניתן לבחור "אין עצים" כאשר הוזן כיסוי באחת מקבוצות הגובה</t>
+  </si>
+  <si>
+    <t>not(${GeneralDensity} = 'אין עצים' and ((${TmiraLayerCover} != 'אין' and string-length(${TmiraLayerCover}) &gt; 0) or (${HighLayerCover} != 'אין' and string-length(${HighLayerCover}) &gt; 0) or (${MidLayerCover} != 'אין' and string-length(${MidLayerCover}) &gt; 0)))</t>
+  </si>
+  <si>
+    <t>not(${StandDensity} = 'אין עצים' and ((${TmiraLayerCover} != 'אין' and string-length(${TmiraLayerCover}) &gt; 0) or (${HighLayerCover} != 'אין' and string-length(${HighLayerCover}) &gt; 0) or (${MidLayerCover} != 'אין' and string-length(${MidLayerCover}) &gt; 0)))</t>
   </si>
 </sst>
 </file>
@@ -8430,14 +8433,14 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -15000,7 +15003,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -15042,7 +15045,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -15066,21 +15069,21 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A120" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F133" sqref="F133"/>
+      <selection pane="topRight" activeCell="E130" sqref="E129:F130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" style="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" customWidth="1"/>
-    <col min="12" max="12" width="29.6640625" customWidth="1"/>
-    <col min="14" max="14" width="28.109375" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="10" customFormat="1" ht="16.5" customHeight="1">
@@ -17112,7 +17115,12 @@
       <c r="D129" s="81" t="s">
         <v>2000</v>
       </c>
-      <c r="F129" s="81"/>
+      <c r="E129" s="124" t="s">
+        <v>2478</v>
+      </c>
+      <c r="F129" t="s">
+        <v>2477</v>
+      </c>
       <c r="G129" s="80" t="s">
         <v>31</v>
       </c>
@@ -17142,11 +17150,11 @@
       <c r="D130" s="1" t="s">
         <v>1999</v>
       </c>
-      <c r="E130" s="126" t="s">
+      <c r="E130" s="124" t="s">
+        <v>2479</v>
+      </c>
+      <c r="F130" t="s">
         <v>2477</v>
-      </c>
-      <c r="F130" t="s">
-        <v>2478</v>
       </c>
       <c r="G130" t="s">
         <v>31</v>
@@ -18361,9 +18369,9 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Relevant" prompt="This gives you the ability to skip questions or make additional questions appear based on the response to a previous question. A question is made relevant by meeting the conditions in the relevant field (e.g., ${name} = 'value')." sqref="L1:L16 L19:L22 L132 L114:L115 L117:L130 L105:L112 L98:L102 L134:L143 L145:L158 L24:L87 L89:L96 L160:L1048576" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="media::audio" prompt="Copy your audio file to the 'media' subfolder for your project and enter the name of your audio file here (e.g., audio.mp3)." sqref="R1:R16 R19:R22 R132 R114:R115 R117:R130 R105:R112 R160:R288 R134:R158 R98:R102 R24:R96" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Constraint" prompt="Limit the range of numbers that can be entered (e.g., .&gt;0 and .&lt;100). Can be used with all question types." sqref="E1:E16 E19:E22 E132 E114:E115 E98:E102 E105:E112 E160:E288 E134:E158 E73:E76 E24:E71 E78:E96 E117:E129" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Constraint" prompt="Limit the range of numbers that can be entered (e.g., .&gt;0 and .&lt;100). Can be used with all question types." sqref="E1:E16 E19:E22 E132 E114:E115 E98:E102 E105:E112 E160:E288 E134:E158 E73:E76 E24:E71 E78:E96 E117:E128" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="C19:C22 C1:C16 C129:C130 C105:C112 C134:C158 C160:C173 C175:C1048576 C24:C73 C75:C96 C98:C102" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Constraint Message" prompt="When the constraint conditions are not met, this message will appear to prompt a valid answer (e.g., Please enter a value from 0-100)." sqref="F1:F16 F19:F22 F132 F114:F115 F98:F102 F105:F112 F160:F1048576 F134:F158 F73:F76 F24:F71 F78:F96 F117:F129" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Constraint Message" prompt="When the constraint conditions are not met, this message will appear to prompt a valid answer (e.g., Please enter a value from 0-100)." sqref="F1:F16 F19:F22 F132 F114:F115 F98:F102 F105:F112 F160:F1048576 F134:F158 F73:F76 F24:F71 F78:F96 F117:F128" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default" prompt="Set the default value for this field. This will pre-populate the survey with the default value. This can either be used to save time by supplying a commonly used answer or by showing what type of answer choice is expected." sqref="J117 J164:J1048576 J19:J22 J1:J16 J129:J130 J105:J112 J134:J158 M7 J160:J162 J98:J102 J24:J96" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="media::image" prompt="Copy your image file to the 'media' subfolder for your project and enter the name of your image file here (e.g., image.jpg)." sqref="S1:S16 S19:S22 S132 S114:S115 S117:S130 S105:S112 S160:S1048576 S134:S158 S98:S102 S24:S96" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Localization - Label" prompt="Enter translations for your survey questions here. Include any further translations by creating a new column (e.g., label::Español (es)). The list of languages will appear in a drop-down menu on the survey." sqref="P1:P16 P19:P22 P132 P114:P115 P117:P130 P105:P112 P160:P1048576 P134:P158 P98:P102 P24:P96" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
@@ -18537,11 +18545,11 @@
       <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="74.44140625" customWidth="1"/>
-    <col min="3" max="3" width="52.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -18590,7 +18598,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26.4">
+    <row r="7" spans="1:5" ht="25.5">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -18601,7 +18609,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26.4">
+    <row r="8" spans="1:5" ht="25.5">
       <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
@@ -18708,7 +18716,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="26.4">
+    <row r="21" spans="1:2" ht="25.5">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -18716,7 +18724,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="26.4">
+    <row r="22" spans="1:2" ht="25.5">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -18724,7 +18732,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="26.4">
+    <row r="23" spans="1:2" ht="25.5">
       <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
@@ -18732,7 +18740,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="39.6">
+    <row r="24" spans="1:2" ht="38.25">
       <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
@@ -19434,7 +19442,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="26.4">
+    <row r="114" spans="1:2" ht="25.5">
       <c r="A114" s="1" t="s">
         <v>223</v>
       </c>
@@ -19650,7 +19658,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="26.4">
+    <row r="141" spans="1:2" ht="25.5">
       <c r="A141" s="1" t="s">
         <v>274</v>
       </c>
@@ -23315,7 +23323,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="844" spans="1:1" ht="26.4">
+    <row r="844" spans="1:1" ht="25.5">
       <c r="A844" s="1" t="s">
         <v>1010</v>
       </c>
@@ -23350,7 +23358,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="851" spans="1:1" ht="26.4">
+    <row r="851" spans="1:1" ht="25.5">
       <c r="A851" s="1" t="s">
         <v>1017</v>
       </c>
@@ -23480,7 +23488,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="877" spans="1:1" ht="26.4">
+    <row r="877" spans="1:1" ht="25.5">
       <c r="A877" s="1" t="s">
         <v>1043</v>
       </c>
@@ -23660,7 +23668,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="913" spans="1:1" ht="26.4">
+    <row r="913" spans="1:1" ht="25.5">
       <c r="A913" s="1" t="s">
         <v>1079</v>
       </c>
@@ -24335,7 +24343,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="1048" spans="1:1" ht="26.4">
+    <row r="1048" spans="1:1" ht="25.5">
       <c r="A1048" s="1" t="s">
         <v>1214</v>
       </c>
@@ -25232,11 +25240,11 @@
       <selection pane="bottomLeft" activeCell="F546" sqref="F546"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30539,13 +30547,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="8" customFormat="1" ht="15.75" customHeight="1">
@@ -30597,21 +30605,21 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="41" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="41"/>
+    <col min="1" max="1" width="52.7109375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="41" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6">
-      <c r="A1" s="124" t="s">
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="125" t="s">
         <v>2130</v>
       </c>
-      <c r="B1" s="124"/>
+      <c r="B1" s="125"/>
       <c r="C1" s="40"/>
     </row>
-    <row r="2" spans="1:3" ht="15.6">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="42"/>
       <c r="B2" s="42"/>
       <c r="C2" s="40"/>
@@ -30633,10 +30641,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="90" customHeight="1">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="126" t="s">
         <v>2134</v>
       </c>
-      <c r="B6" s="125"/>
+      <c r="B6" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -30659,14 +30667,14 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="88.6640625" style="41" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="41"/>
+    <col min="1" max="1" width="27.42578125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="88.7109375" style="41" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="46" customFormat="1" ht="15.6">
+    <row r="1" spans="1:2" s="46" customFormat="1" ht="15.75">
       <c r="A1" s="45" t="s">
         <v>2135</v>
       </c>
@@ -30722,7 +30730,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.8">
+    <row r="8" spans="1:2" ht="30">
       <c r="A8" s="47" t="s">
         <v>2137</v>
       </c>
@@ -30730,7 +30738,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.8">
+    <row r="9" spans="1:2" ht="30">
       <c r="A9" s="47" t="s">
         <v>2139</v>
       </c>
@@ -30738,7 +30746,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.8">
+    <row r="10" spans="1:2" ht="30">
       <c r="A10" s="47" t="s">
         <v>2141</v>
       </c>
@@ -30834,7 +30842,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.8">
+    <row r="22" spans="1:2" ht="30">
       <c r="A22" s="47" t="s">
         <v>72</v>
       </c>
@@ -30842,7 +30850,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.8">
+    <row r="23" spans="1:2" ht="30">
       <c r="A23" s="47" t="s">
         <v>78</v>
       </c>
@@ -30850,7 +30858,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="28.8">
+    <row r="24" spans="1:2" ht="30">
       <c r="A24" s="47" t="s">
         <v>74</v>
       </c>
@@ -30858,7 +30866,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.8">
+    <row r="25" spans="1:2" ht="30">
       <c r="A25" s="47" t="s">
         <v>76</v>
       </c>
@@ -30902,15 +30910,15 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="107.6640625" style="41" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="41"/>
+    <col min="1" max="1" width="19.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="107.7109375" style="41" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="46" customFormat="1" ht="15.6">
+    <row r="1" spans="1:3" s="46" customFormat="1" ht="15.75">
       <c r="A1" s="48" t="s">
         <v>92</v>
       </c>
@@ -30943,7 +30951,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.2">
+    <row r="4" spans="1:3" ht="45">
       <c r="A4" s="49" t="s">
         <v>128</v>
       </c>
@@ -31108,7 +31116,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6">
+    <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="50" t="s">
         <v>92</v>
       </c>
@@ -31496,15 +31504,15 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" style="41" customWidth="1"/>
     <col min="3" max="3" width="14" style="41" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="41"/>
+    <col min="4" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="45" t="s">
         <v>2186</v>
       </c>
@@ -31607,7 +31615,7 @@
       <c r="A15" s="49"/>
       <c r="B15" s="49"/>
     </row>
-    <row r="16" spans="1:3" ht="15.6">
+    <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="45" t="s">
         <v>2190</v>
       </c>
@@ -31691,15 +31699,15 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="41"/>
+    <col min="1" max="1" width="24.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="45" t="s">
         <v>2192</v>
       </c>
@@ -31740,7 +31748,7 @@
       <c r="B5" s="49"/>
       <c r="C5" s="57"/>
     </row>
-    <row r="6" spans="1:3" ht="15.6">
+    <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="45" t="s">
         <v>2195</v>
       </c>
@@ -31765,7 +31773,7 @@
       <c r="B8" s="49"/>
       <c r="C8" s="57"/>
     </row>
-    <row r="9" spans="1:3" ht="15.6">
+    <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="45" t="s">
         <v>2198</v>
       </c>
@@ -31935,7 +31943,7 @@
       <c r="B24" s="49"/>
       <c r="C24" s="57"/>
     </row>
-    <row r="25" spans="1:3" ht="15.6">
+    <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="45" t="s">
         <v>2213</v>
       </c>
@@ -32084,7 +32092,7 @@
       <c r="B41" s="49"/>
       <c r="C41" s="57"/>
     </row>
-    <row r="42" spans="1:3" ht="15.6">
+    <row r="42" spans="1:3" ht="15.75">
       <c r="A42" s="45" t="s">
         <v>2241</v>
       </c>
@@ -32413,7 +32421,7 @@
       <c r="B78" s="49"/>
       <c r="C78" s="57"/>
     </row>
-    <row r="79" spans="1:3" ht="15.6">
+    <row r="79" spans="1:3" ht="15.75">
       <c r="A79" s="45" t="s">
         <v>2246</v>
       </c>
@@ -32598,7 +32606,7 @@
       <c r="B99" s="49"/>
       <c r="C99" s="57"/>
     </row>
-    <row r="100" spans="1:3" ht="15.6">
+    <row r="100" spans="1:3" ht="15.75">
       <c r="A100" s="45" t="s">
         <v>2248</v>
       </c>
@@ -32731,14 +32739,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" style="41" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="41"/>
+    <col min="1" max="1" width="40.7109375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" style="41" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6">
+    <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="45" t="s">
         <v>2254</v>
       </c>
